--- a/medicine/Mort/L'Homme_devant_la_mort/L'Homme_devant_la_mort.xlsx
+++ b/medicine/Mort/L'Homme_devant_la_mort/L'Homme_devant_la_mort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Homme_devant_la_mort</t>
+          <t>L'Homme_devant_la_mort</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Homme devant la mort est un essai de Philippe Ariès  publié en 1977 qui reprend les thèmes d’un premier ouvrage Essais sur l'histoire de la mort en Occident  (1975).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Homme_devant_la_mort</t>
+          <t>L'Homme_devant_la_mort</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour traiter son sujet, Philippe Ariès constitua un corpus documentaire varié (sources littéraires, liturgiques, testamentaires, épigraphiques et surtout iconographiques) et balaya la période allant du Moyen Âge à nos jours. Il s’agit donc d’une histoire de la longue durée comme l’a définie Fernand Braudel.
 Selon Philippe Ariès, il existe une relation « entre l’attitude devant la mort et la conscience de soi, de son degré d’être, plus simplement de son individualité ». Il observe « la persistance pendant des millénaires d’une attitude presque inchangée devant la mort, qui traduisait une résignation naïve et spontanée au destin et à la nature ».
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Homme_devant_la_mort</t>
+          <t>L'Homme_devant_la_mort</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,10 +565,12 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ouvrage est traduit en une trentaine de langues[1].
-Emmanuel Le Roy Ladurie indique en 1978 que l'ouvrage livre « une succession haletante d’images culturelles. Avec brio, il introduit l’ordre souverain de la raison historienne dans un paysage de très longue durée »[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ouvrage est traduit en une trentaine de langues.
+Emmanuel Le Roy Ladurie indique en 1978 que l'ouvrage livre « une succession haletante d’images culturelles. Avec brio, il introduit l’ordre souverain de la raison historienne dans un paysage de très longue durée ».
 </t>
         </is>
       </c>
